--- a/Employement/Employment Status.xlsx
+++ b/Employement/Employment Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsh04\Desktop\2024-Fall\Employement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234CF0CB-6FB6-400D-A979-5601A5FB8DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDABF28-98F8-45A7-B624-3EC16EA2B0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E0539C40-DB60-4822-ABC1-759342AC433F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E0539C40-DB60-4822-ABC1-759342AC433F}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jan Full Time" sheetId="2" r:id="rId1"/>
@@ -1591,7 +1591,7 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,20 +1958,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="8">
         <v>45517</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G41" t="e" vm="24">
+      <c r="G41" s="6" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
     </row>

--- a/Employement/Employment Status.xlsx
+++ b/Employement/Employment Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsh04\Desktop\2024-Fall\Employement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDABF28-98F8-45A7-B624-3EC16EA2B0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6C2898-9CE2-40D5-928F-9A8CF69494F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E0539C40-DB60-4822-ABC1-759342AC433F}"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="14430" windowHeight="15585" xr2:uid="{E0539C40-DB60-4822-ABC1-759342AC433F}"/>
   </bookViews>
   <sheets>
     <sheet name="2025 Jan Full Time" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="50">
+  <futureMetadata name="XLRICHVALUE" count="59">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -392,8 +392,71 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="50"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="51"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="52"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="53"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="54"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="55"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="56"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="57"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="58"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="50">
+  <valueMetadata count="59">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -543,13 +606,40 @@
     </bk>
     <bk>
       <rc t="1" v="49"/>
+    </bk>
+    <bk>
+      <rc t="1" v="50"/>
+    </bk>
+    <bk>
+      <rc t="1" v="51"/>
+    </bk>
+    <bk>
+      <rc t="1" v="52"/>
+    </bk>
+    <bk>
+      <rc t="1" v="53"/>
+    </bk>
+    <bk>
+      <rc t="1" v="54"/>
+    </bk>
+    <bk>
+      <rc t="1" v="55"/>
+    </bk>
+    <bk>
+      <rc t="1" v="56"/>
+    </bk>
+    <bk>
+      <rc t="1" v="57"/>
+    </bk>
+    <bk>
+      <rc t="1" v="58"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="119">
   <si>
     <t>Draper</t>
   </si>
@@ -888,6 +978,24 @@
   </si>
   <si>
     <t>https://www.stokespace.com/careers/current-openings/?gh_jid=5226967004</t>
+  </si>
+  <si>
+    <t>Guidance, Navigation and control Engineer - Highlands Ranch, Colorado (676606BR) Orion</t>
+  </si>
+  <si>
+    <t>https://www.lockheedmartinjobs.com/job/highlands-ranch/guidance-navigation-and-control-engineer/694/70078542640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guidance Navigation &amp; Control Engineer - Early Career - Grand Prairie, Texas (673783BR) IAMD / LT-P3-DV / P3-DV IRAD </t>
+  </si>
+  <si>
+    <t>https://www.lockheedmartinjobs.com/job/grand-prairie/guidance-navigation-and-control-engineer-early-career-dallas-tx/694/70114702384</t>
+  </si>
+  <si>
+    <t>Guidance, Navigation &amp; Control Engineer - Orlando, FL  (673772BR)  Orlando/ADSW/JASSM/JASSM CON</t>
+  </si>
+  <si>
+    <t>https://www.lockheedmartinjobs.com/job/orlando/guidance-navigation-and-control-engineer-orlando-fl/694/70078538432</t>
   </si>
 </sst>
 </file>
@@ -952,7 +1060,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -964,6 +1072,11 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1023,7 +1136,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="50">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="59">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -1222,6 +1335,42 @@
   </rv>
   <rv s="0">
     <v>49</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>50</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>51</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>52</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>53</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>54</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>55</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>56</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>57</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>58</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -1288,6 +1437,15 @@
   <rel r:id="rId48"/>
   <rel r:id="rId49"/>
   <rel r:id="rId50"/>
+  <rel r:id="rId51"/>
+  <rel r:id="rId52"/>
+  <rel r:id="rId53"/>
+  <rel r:id="rId54"/>
+  <rel r:id="rId55"/>
+  <rel r:id="rId56"/>
+  <rel r:id="rId57"/>
+  <rel r:id="rId58"/>
+  <rel r:id="rId59"/>
 </richValueRels>
 </file>
 
@@ -1588,16 +1746,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A248182B-F338-4D88-B5BE-882C43BCF2CB}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2046,180 +2204,260 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+    <row r="46" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="12">
+        <v>45555</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="11" t="e" vm="34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G46" s="11" t="e" vm="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H46" s="11" t="e" vm="36">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="12">
+        <v>45555</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" s="11" t="e" vm="37">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G47" s="11" t="e" vm="38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H47" s="11" t="e" vm="39">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="12">
+        <v>45555</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="13" t="e" vm="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G48" s="13" t="e" vm="41">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H48" s="13" t="e" vm="42">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+    </row>
+    <row r="55" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B55" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C55" s="8">
         <v>45517</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D55" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    <row r="57" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B57" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C57" s="8">
         <v>45517</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="2">
-        <v>45535</v>
-      </c>
-      <c r="D54" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" t="e" vm="34">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F54" t="e" vm="35">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="2">
-        <v>45535</v>
-      </c>
-      <c r="D56" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" t="e" vm="36">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F56" t="e" vm="37">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G56" t="e" vm="38">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" s="2">
-        <v>45535</v>
-      </c>
-      <c r="D58" t="s">
-        <v>93</v>
-      </c>
-      <c r="E58" t="e" vm="39">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F58" t="e" vm="40">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="2">
-        <v>45535</v>
-      </c>
-      <c r="D60" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" t="e" vm="41">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" t="e" vm="42">
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="2">
+        <v>45535</v>
+      </c>
+      <c r="D62" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" t="e" vm="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F62" t="e" vm="44">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="2">
+        <v>45535</v>
+      </c>
+      <c r="D64" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" t="e" vm="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F64" t="e" vm="46">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G64" t="e" vm="47">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45535</v>
+      </c>
+      <c r="D66" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" t="e" vm="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F66" t="e" vm="49">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45535</v>
+      </c>
+      <c r="D68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" t="e" vm="50">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F68" t="e" vm="51">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>103</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B70" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C70" s="2">
         <v>45546</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E62" t="e" vm="43">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F62" t="e" vm="44">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="E70" t="e" vm="52">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F70" t="e" vm="53">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B73" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C73" s="8">
         <v>45550</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D73" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E65" s="6" t="e" vm="45">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F65" s="6" t="e" vm="46">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G65" s="6" t="e" vm="47">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H65" s="6" t="e" vm="48">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="E73" s="6" t="e" vm="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F73" s="6" t="e" vm="55">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G73" s="6" t="e" vm="56">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H73" s="6" t="e" vm="57">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>111</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B75" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C75" s="2">
         <v>45550</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D75" t="s">
         <v>112</v>
       </c>
-      <c r="E67" t="e" vm="49">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F67" t="e" vm="50">
+      <c r="E75" t="e" vm="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F75" t="e" vm="59">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2227,7 +2465,7 @@
   <hyperlinks>
     <hyperlink ref="D41" r:id="rId1" xr:uid="{C7F5CDCC-C64C-463C-926C-91C73641CC7B}"/>
     <hyperlink ref="D42" r:id="rId2" xr:uid="{CE96B0B7-8DFE-4394-8492-12CA15B1D22A}"/>
-    <hyperlink ref="D47" r:id="rId3" xr:uid="{31996B9E-E760-4085-8FEA-64804E616A43}"/>
+    <hyperlink ref="D55" r:id="rId3" xr:uid="{31996B9E-E760-4085-8FEA-64804E616A43}"/>
     <hyperlink ref="D7" r:id="rId4" xr:uid="{C59943BB-A2E6-4053-BCEE-142A6DBE3A7E}"/>
     <hyperlink ref="D15" r:id="rId5" xr:uid="{DB64D443-10B8-46FA-B8CB-D1CF7F5DB24E}"/>
     <hyperlink ref="D14" r:id="rId6" xr:uid="{CE4B082C-A4F9-4EC8-92C6-5B3B58D15D7D}"/>
@@ -2237,12 +2475,13 @@
     <hyperlink ref="D16" r:id="rId10" xr:uid="{2299E3F8-F746-405E-9F2B-B74FE02EBD80}"/>
     <hyperlink ref="D44" r:id="rId11" xr:uid="{860FE466-DF1A-4228-A836-44D325A75554}"/>
     <hyperlink ref="D2" r:id="rId12" xr:uid="{0715E8F6-27C8-452E-B9D3-DFFB97A15B4A}"/>
-    <hyperlink ref="D62" r:id="rId13" xr:uid="{CC2007A5-669B-44E4-9DEB-13A27D82549D}"/>
+    <hyperlink ref="D70" r:id="rId13" xr:uid="{CC2007A5-669B-44E4-9DEB-13A27D82549D}"/>
     <hyperlink ref="D24" r:id="rId14" xr:uid="{8048A811-80D7-45A9-BE1A-7222C7A20AA4}"/>
     <hyperlink ref="D8" r:id="rId15" xr:uid="{7E714A47-C303-47E0-90F1-54A302902882}"/>
+    <hyperlink ref="D47" r:id="rId16" xr:uid="{860A4F90-5497-46FA-9A8C-72FA19B71B87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
